--- a/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_24-Aug-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_24-Aug-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B2" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>92646</v>
+        <v>46456</v>
       </c>
       <c r="E2" t="n">
-        <v>-39676</v>
+        <v>-23892</v>
       </c>
       <c r="F2" t="n">
-        <v>-29.98443191608349</v>
+        <v>-33.96258600102348</v>
       </c>
       <c r="G2" t="n">
-        <v>2111863</v>
+        <v>862867</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="I2" t="n">
-        <v>205.95</v>
+        <v>300.45</v>
       </c>
       <c r="J2" t="n">
-        <v>59.44999999999999</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>40.58020477815699</v>
+        <v>3.800310934531007</v>
       </c>
       <c r="L2" t="n">
-        <v>1413195</v>
+        <v>280770</v>
       </c>
       <c r="M2" t="n">
-        <v>144705</v>
+        <v>37365</v>
       </c>
       <c r="N2" t="n">
-        <v>493637</v>
+        <v>174091</v>
       </c>
       <c r="O2" t="n">
-        <v>293823</v>
+        <v>-64955</v>
       </c>
       <c r="P2" t="n">
-        <v>147.0482548770356</v>
+        <v>-27.17259439605766</v>
       </c>
       <c r="Q2" t="n">
-        <v>12130858</v>
+        <v>7985675</v>
       </c>
       <c r="R2" t="n">
-        <v>8.65</v>
+        <v>4.28</v>
       </c>
       <c r="S2" t="n">
-        <v>12.95</v>
+        <v>0.05</v>
       </c>
       <c r="T2" t="n">
-        <v>-92.95</v>
+        <v>-47.25</v>
       </c>
       <c r="U2" t="n">
-        <v>-87.77148253068933</v>
+        <v>-99.89429175475688</v>
       </c>
       <c r="V2" t="n">
-        <v>4790685</v>
+        <v>944475</v>
       </c>
       <c r="W2" t="n">
-        <v>825135</v>
+        <v>665730</v>
       </c>
       <c r="X2" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B3" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>332590</v>
+        <v>65932</v>
       </c>
       <c r="E3" t="n">
-        <v>31506</v>
+        <v>-26555</v>
       </c>
       <c r="F3" t="n">
-        <v>10.46418939565038</v>
+        <v>-28.71214332825154</v>
       </c>
       <c r="G3" t="n">
-        <v>6659114</v>
+        <v>2186750</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>9.27</v>
       </c>
       <c r="I3" t="n">
-        <v>123.9</v>
+        <v>201.1</v>
       </c>
       <c r="J3" t="n">
-        <v>27.45</v>
+        <v>-10.70000000000002</v>
       </c>
       <c r="K3" t="n">
-        <v>28.46034214618974</v>
+        <v>-5.051935788479706</v>
       </c>
       <c r="L3" t="n">
-        <v>4773945</v>
+        <v>466305</v>
       </c>
       <c r="M3" t="n">
-        <v>540945</v>
+        <v>52035</v>
       </c>
       <c r="N3" t="n">
-        <v>693247</v>
+        <v>206735</v>
       </c>
       <c r="O3" t="n">
-        <v>542692</v>
+        <v>-16885</v>
       </c>
       <c r="P3" t="n">
-        <v>360.4609611105576</v>
+        <v>-7.550755746355424</v>
       </c>
       <c r="Q3" t="n">
-        <v>20571003</v>
+        <v>15464235</v>
       </c>
       <c r="R3" t="n">
-        <v>8.42</v>
+        <v>2.82</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>0.05</v>
       </c>
       <c r="T3" t="n">
-        <v>-124.2</v>
+        <v>-70.75</v>
       </c>
       <c r="U3" t="n">
-        <v>-79.97424339987123</v>
+        <v>-99.92937853107345</v>
       </c>
       <c r="V3" t="n">
-        <v>6565905</v>
+        <v>1285335</v>
       </c>
       <c r="W3" t="n">
-        <v>1355220</v>
+        <v>499440</v>
       </c>
       <c r="X3" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B4" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>463945</v>
+        <v>177282</v>
       </c>
       <c r="E4" t="n">
-        <v>262713</v>
+        <v>44960</v>
       </c>
       <c r="F4" t="n">
-        <v>130.5522978452731</v>
+        <v>33.97772101389036</v>
       </c>
       <c r="G4" t="n">
-        <v>10523315</v>
+        <v>8307714</v>
       </c>
       <c r="H4" t="n">
-        <v>6.28</v>
+        <v>5.92</v>
       </c>
       <c r="I4" t="n">
-        <v>67.05</v>
+        <v>100.85</v>
       </c>
       <c r="J4" t="n">
-        <v>7.299999999999997</v>
+        <v>-45.65000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>12.21757322175732</v>
+        <v>-31.16040955631399</v>
       </c>
       <c r="L4" t="n">
-        <v>5172000</v>
+        <v>1497135</v>
       </c>
       <c r="M4" t="n">
-        <v>1035570</v>
+        <v>159405</v>
       </c>
       <c r="N4" t="n">
-        <v>431576</v>
+        <v>391396</v>
       </c>
       <c r="O4" t="n">
-        <v>395861</v>
+        <v>191582</v>
       </c>
       <c r="P4" t="n">
-        <v>1108.388632227355</v>
+        <v>95.88016855675778</v>
       </c>
       <c r="Q4" t="n">
-        <v>17979824</v>
+        <v>37509797</v>
       </c>
       <c r="R4" t="n">
-        <v>8.94</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>72.59999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="T4" t="n">
-        <v>-146.65</v>
+        <v>-105.7</v>
       </c>
       <c r="U4" t="n">
-        <v>-66.88711516533637</v>
+        <v>-99.81114258734655</v>
       </c>
       <c r="V4" t="n">
-        <v>4773105</v>
+        <v>5583900</v>
       </c>
       <c r="W4" t="n">
-        <v>761640</v>
+        <v>1055295</v>
       </c>
       <c r="X4" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B5" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>649396</v>
+        <v>797302</v>
       </c>
       <c r="E5" t="n">
-        <v>490708</v>
+        <v>496218</v>
       </c>
       <c r="F5" t="n">
-        <v>309.2281710022182</v>
+        <v>164.8104847816556</v>
       </c>
       <c r="G5" t="n">
-        <v>16512240</v>
+        <v>38964980</v>
       </c>
       <c r="H5" t="n">
-        <v>7.31</v>
+        <v>1.19</v>
       </c>
       <c r="I5" t="n">
-        <v>35.05</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.300000000000004</v>
+        <v>-93.2</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.576341127922983</v>
+        <v>-96.63037843442198</v>
       </c>
       <c r="L5" t="n">
-        <v>5313930</v>
+        <v>6170760</v>
       </c>
       <c r="M5" t="n">
-        <v>1691475</v>
+        <v>1859550</v>
       </c>
       <c r="N5" t="n">
-        <v>225620</v>
+        <v>699465</v>
       </c>
       <c r="O5" t="n">
-        <v>210850</v>
+        <v>548910</v>
       </c>
       <c r="P5" t="n">
-        <v>1427.555856465809</v>
+        <v>364.5910132509714</v>
       </c>
       <c r="Q5" t="n">
-        <v>16019049</v>
+        <v>60436334</v>
       </c>
       <c r="R5" t="n">
-        <v>10.21</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.65</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>-156.05</v>
+        <v>-153.1</v>
       </c>
       <c r="U5" t="n">
-        <v>-52.59521402089653</v>
+        <v>-98.58338699291694</v>
       </c>
       <c r="V5" t="n">
-        <v>3779760</v>
+        <v>7089405</v>
       </c>
       <c r="W5" t="n">
-        <v>358680</v>
+        <v>1635435</v>
       </c>
       <c r="X5" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B6" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>619784</v>
+        <v>441336</v>
       </c>
       <c r="E6" t="n">
-        <v>457684</v>
+        <v>240104</v>
       </c>
       <c r="F6" t="n">
-        <v>282.3466995681678</v>
+        <v>119.3170072354298</v>
       </c>
       <c r="G6" t="n">
-        <v>17022653</v>
+        <v>33736964</v>
       </c>
       <c r="H6" t="n">
-        <v>8.460000000000001</v>
+        <v>2.33</v>
       </c>
       <c r="I6" t="n">
-        <v>17.8</v>
+        <v>0.15</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.800000000000001</v>
+        <v>-59.6</v>
       </c>
       <c r="K6" t="n">
-        <v>-17.5925925925926</v>
+        <v>-99.7489539748954</v>
       </c>
       <c r="L6" t="n">
-        <v>5460360</v>
+        <v>3622095</v>
       </c>
       <c r="M6" t="n">
-        <v>1713450</v>
+        <v>1477845</v>
       </c>
       <c r="N6" t="n">
-        <v>109828</v>
+        <v>172867</v>
       </c>
       <c r="O6" t="n">
-        <v>101361</v>
+        <v>137152</v>
       </c>
       <c r="P6" t="n">
-        <v>1197.13003425062</v>
+        <v>384.0179196416072</v>
       </c>
       <c r="Q6" t="n">
-        <v>11137981</v>
+        <v>32439365</v>
       </c>
       <c r="R6" t="n">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>224.55</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>-156.25</v>
+        <v>-120.6</v>
       </c>
       <c r="U6" t="n">
-        <v>-41.03203781512605</v>
+        <v>-55.00570125427594</v>
       </c>
       <c r="V6" t="n">
-        <v>2713320</v>
+        <v>2429355</v>
       </c>
       <c r="W6" t="n">
-        <v>210525</v>
+        <v>227730</v>
       </c>
       <c r="X6" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B7" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>528826</v>
+        <v>283044</v>
       </c>
       <c r="E7" t="n">
-        <v>417914</v>
+        <v>124356</v>
       </c>
       <c r="F7" t="n">
-        <v>376.7978216964801</v>
+        <v>78.36509376890503</v>
       </c>
       <c r="G7" t="n">
-        <v>15505927</v>
+        <v>32390113</v>
       </c>
       <c r="H7" t="n">
-        <v>9.57</v>
+        <v>3.86</v>
       </c>
       <c r="I7" t="n">
-        <v>9.949999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.350000000000001</v>
+        <v>-36.25</v>
       </c>
       <c r="K7" t="n">
-        <v>-25.18796992481204</v>
+        <v>-99.72489683631362</v>
       </c>
       <c r="L7" t="n">
-        <v>4595880</v>
+        <v>2859870</v>
       </c>
       <c r="M7" t="n">
-        <v>1359600</v>
+        <v>867030</v>
       </c>
       <c r="N7" t="n">
-        <v>63930</v>
+        <v>108194</v>
       </c>
       <c r="O7" t="n">
-        <v>59196</v>
+        <v>93424</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.443599493029</v>
+        <v>632.5253893026405</v>
       </c>
       <c r="Q7" t="n">
-        <v>5538664</v>
+        <v>21188381</v>
       </c>
       <c r="R7" t="n">
-        <v>13.97</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>316.6</v>
+        <v>198.65</v>
       </c>
       <c r="T7" t="n">
-        <v>-156.1</v>
+        <v>-98.04999999999998</v>
       </c>
       <c r="U7" t="n">
-        <v>-33.02305902263591</v>
+        <v>-33.0468486686889</v>
       </c>
       <c r="V7" t="n">
-        <v>1295025</v>
+        <v>1323885</v>
       </c>
       <c r="W7" t="n">
-        <v>77055</v>
+        <v>82470</v>
       </c>
       <c r="X7" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>97238</v>
+        <v>46456</v>
       </c>
       <c r="E8" t="n">
-        <v>-35084</v>
+        <v>-23892</v>
       </c>
       <c r="F8" t="n">
-        <v>-26.51410952071462</v>
+        <v>-33.96258600102348</v>
       </c>
       <c r="G8" t="n">
-        <v>2097802</v>
+        <v>862867</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="I8" t="n">
-        <v>200.05</v>
+        <v>300.45</v>
       </c>
       <c r="J8" t="n">
-        <v>53.55000000000001</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>36.5529010238908</v>
+        <v>3.800310934531007</v>
       </c>
       <c r="L8" t="n">
-        <v>1400190</v>
+        <v>280770</v>
       </c>
       <c r="M8" t="n">
-        <v>161805</v>
+        <v>37365</v>
       </c>
       <c r="N8" t="n">
-        <v>489536</v>
+        <v>174091</v>
       </c>
       <c r="O8" t="n">
-        <v>289722</v>
+        <v>-64955</v>
       </c>
       <c r="P8" t="n">
-        <v>144.9958461369073</v>
+        <v>-27.17259439605766</v>
       </c>
       <c r="Q8" t="n">
-        <v>12052385</v>
+        <v>7985675</v>
       </c>
       <c r="R8" t="n">
-        <v>8.970000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="S8" t="n">
-        <v>14.45</v>
+        <v>0.05</v>
       </c>
       <c r="T8" t="n">
-        <v>-91.45</v>
+        <v>-47.25</v>
       </c>
       <c r="U8" t="n">
-        <v>-86.35505193578848</v>
+        <v>-99.89429175475688</v>
       </c>
       <c r="V8" t="n">
-        <v>4757310</v>
+        <v>944475</v>
       </c>
       <c r="W8" t="n">
-        <v>804045</v>
+        <v>665730</v>
       </c>
       <c r="X8" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>336499</v>
+        <v>65932</v>
       </c>
       <c r="E9" t="n">
-        <v>35415</v>
+        <v>-26555</v>
       </c>
       <c r="F9" t="n">
-        <v>11.76249817326726</v>
+        <v>-28.71214332825154</v>
       </c>
       <c r="G9" t="n">
-        <v>6604966</v>
+        <v>2186750</v>
       </c>
       <c r="H9" t="n">
-        <v>3.11</v>
+        <v>9.27</v>
       </c>
       <c r="I9" t="n">
-        <v>120.4</v>
+        <v>201.1</v>
       </c>
       <c r="J9" t="n">
-        <v>23.95</v>
+        <v>-10.70000000000002</v>
       </c>
       <c r="K9" t="n">
-        <v>24.8315189217211</v>
+        <v>-5.051935788479706</v>
       </c>
       <c r="L9" t="n">
-        <v>4718100</v>
+        <v>466305</v>
       </c>
       <c r="M9" t="n">
-        <v>469425</v>
+        <v>52035</v>
       </c>
       <c r="N9" t="n">
-        <v>686595</v>
+        <v>206735</v>
       </c>
       <c r="O9" t="n">
-        <v>536040</v>
+        <v>-16885</v>
       </c>
       <c r="P9" t="n">
-        <v>356.042642223772</v>
+        <v>-7.550755746355424</v>
       </c>
       <c r="Q9" t="n">
-        <v>20458419</v>
+        <v>15464235</v>
       </c>
       <c r="R9" t="n">
-        <v>8.93</v>
+        <v>2.82</v>
       </c>
       <c r="S9" t="n">
-        <v>34.1</v>
+        <v>0.05</v>
       </c>
       <c r="T9" t="n">
-        <v>-121.2</v>
+        <v>-70.75</v>
       </c>
       <c r="U9" t="n">
-        <v>-78.0424983902125</v>
+        <v>-99.92937853107345</v>
       </c>
       <c r="V9" t="n">
-        <v>6459630</v>
+        <v>1285335</v>
       </c>
       <c r="W9" t="n">
-        <v>1285260</v>
+        <v>499440</v>
       </c>
       <c r="X9" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>461893</v>
+        <v>177282</v>
       </c>
       <c r="E10" t="n">
-        <v>260661</v>
+        <v>44960</v>
       </c>
       <c r="F10" t="n">
-        <v>129.5325793114415</v>
+        <v>33.97772101389036</v>
       </c>
       <c r="G10" t="n">
-        <v>10424462</v>
+        <v>8307714</v>
       </c>
       <c r="H10" t="n">
-        <v>6.02</v>
+        <v>5.92</v>
       </c>
       <c r="I10" t="n">
-        <v>63.65</v>
+        <v>100.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.899999999999999</v>
+        <v>-45.65000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>6.527196652719663</v>
+        <v>-31.16040955631399</v>
       </c>
       <c r="L10" t="n">
-        <v>5124180</v>
+        <v>1497135</v>
       </c>
       <c r="M10" t="n">
-        <v>1018110</v>
+        <v>159405</v>
       </c>
       <c r="N10" t="n">
-        <v>433772</v>
+        <v>391396</v>
       </c>
       <c r="O10" t="n">
-        <v>398057</v>
+        <v>191582</v>
       </c>
       <c r="P10" t="n">
-        <v>1114.537309253815</v>
+        <v>95.88016855675778</v>
       </c>
       <c r="Q10" t="n">
-        <v>17891878</v>
+        <v>37509797</v>
       </c>
       <c r="R10" t="n">
-        <v>9.710000000000001</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>77.55</v>
+        <v>0.2</v>
       </c>
       <c r="T10" t="n">
-        <v>-141.7</v>
+        <v>-105.7</v>
       </c>
       <c r="U10" t="n">
-        <v>-64.62941847206385</v>
+        <v>-99.81114258734655</v>
       </c>
       <c r="V10" t="n">
-        <v>4682130</v>
+        <v>5583900</v>
       </c>
       <c r="W10" t="n">
-        <v>708855</v>
+        <v>1055295</v>
       </c>
       <c r="X10" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>641763</v>
+        <v>797302</v>
       </c>
       <c r="E11" t="n">
-        <v>483075</v>
+        <v>496218</v>
       </c>
       <c r="F11" t="n">
-        <v>304.4181034482759</v>
+        <v>164.8104847816556</v>
       </c>
       <c r="G11" t="n">
-        <v>16402154</v>
+        <v>38964980</v>
       </c>
       <c r="H11" t="n">
-        <v>7.36</v>
+        <v>1.19</v>
       </c>
       <c r="I11" t="n">
-        <v>32.3</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.050000000000004</v>
+        <v>-93.2</v>
       </c>
       <c r="K11" t="n">
-        <v>-11.1416781292985</v>
+        <v>-96.63037843442198</v>
       </c>
       <c r="L11" t="n">
-        <v>5292720</v>
+        <v>6170760</v>
       </c>
       <c r="M11" t="n">
-        <v>1655535</v>
+        <v>1859550</v>
       </c>
       <c r="N11" t="n">
-        <v>227016</v>
+        <v>699465</v>
       </c>
       <c r="O11" t="n">
-        <v>212246</v>
+        <v>548910</v>
       </c>
       <c r="P11" t="n">
-        <v>1437.007447528774</v>
+        <v>364.5910132509714</v>
       </c>
       <c r="Q11" t="n">
-        <v>15979982</v>
+        <v>60436334</v>
       </c>
       <c r="R11" t="n">
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>145.85</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>-150.85</v>
+        <v>-153.1</v>
       </c>
       <c r="U11" t="n">
-        <v>-50.84260195483653</v>
+        <v>-98.58338699291694</v>
       </c>
       <c r="V11" t="n">
-        <v>3733275</v>
+        <v>7089405</v>
       </c>
       <c r="W11" t="n">
-        <v>344280</v>
+        <v>1635435</v>
       </c>
       <c r="X11" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>608704</v>
+        <v>441336</v>
       </c>
       <c r="E12" t="n">
-        <v>446604</v>
+        <v>240104</v>
       </c>
       <c r="F12" t="n">
-        <v>275.5114127082048</v>
+        <v>119.3170072354298</v>
       </c>
       <c r="G12" t="n">
-        <v>16940905</v>
+        <v>33736964</v>
       </c>
       <c r="H12" t="n">
-        <v>8.51</v>
+        <v>2.33</v>
       </c>
       <c r="I12" t="n">
-        <v>16.75</v>
+        <v>0.15</v>
       </c>
       <c r="J12" t="n">
-        <v>-4.850000000000001</v>
+        <v>-59.6</v>
       </c>
       <c r="K12" t="n">
-        <v>-22.45370370370371</v>
+        <v>-99.7489539748954</v>
       </c>
       <c r="L12" t="n">
-        <v>5419305</v>
+        <v>3622095</v>
       </c>
       <c r="M12" t="n">
-        <v>1662660</v>
+        <v>1477845</v>
       </c>
       <c r="N12" t="n">
-        <v>108919</v>
+        <v>172867</v>
       </c>
       <c r="O12" t="n">
-        <v>100452</v>
+        <v>137152</v>
       </c>
       <c r="P12" t="n">
-        <v>1186.394236447384</v>
+        <v>384.0179196416072</v>
       </c>
       <c r="Q12" t="n">
-        <v>11122650</v>
+        <v>32439365</v>
       </c>
       <c r="R12" t="n">
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>230.8</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>-150</v>
+        <v>-120.6</v>
       </c>
       <c r="U12" t="n">
-        <v>-39.39075630252101</v>
+        <v>-55.00570125427594</v>
       </c>
       <c r="V12" t="n">
-        <v>2702400</v>
+        <v>2429355</v>
       </c>
       <c r="W12" t="n">
-        <v>186720</v>
+        <v>227730</v>
       </c>
       <c r="X12" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>518046</v>
+        <v>283044</v>
       </c>
       <c r="E13" t="n">
-        <v>407134</v>
+        <v>124356</v>
       </c>
       <c r="F13" t="n">
-        <v>367.0784045008655</v>
+        <v>78.36509376890503</v>
       </c>
       <c r="G13" t="n">
-        <v>15424098</v>
+        <v>32390113</v>
       </c>
       <c r="H13" t="n">
-        <v>9.720000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="I13" t="n">
-        <v>9.15</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.15</v>
+        <v>-36.25</v>
       </c>
       <c r="K13" t="n">
-        <v>-31.20300751879699</v>
+        <v>-99.72489683631362</v>
       </c>
       <c r="L13" t="n">
-        <v>4593255</v>
+        <v>2859870</v>
       </c>
       <c r="M13" t="n">
-        <v>1353870</v>
+        <v>867030</v>
       </c>
       <c r="N13" t="n">
-        <v>65482</v>
+        <v>108194</v>
       </c>
       <c r="O13" t="n">
-        <v>60748</v>
+        <v>93424</v>
       </c>
       <c r="P13" t="n">
-        <v>1283.227714406422</v>
+        <v>632.5253893026405</v>
       </c>
       <c r="Q13" t="n">
-        <v>5532951</v>
+        <v>21188381</v>
       </c>
       <c r="R13" t="n">
-        <v>15.49</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>324</v>
+        <v>198.65</v>
       </c>
       <c r="T13" t="n">
-        <v>-148.7</v>
+        <v>-98.04999999999998</v>
       </c>
       <c r="U13" t="n">
-        <v>-31.45758409138988</v>
+        <v>-33.0468486686889</v>
       </c>
       <c r="V13" t="n">
-        <v>1290255</v>
+        <v>1323885</v>
       </c>
       <c r="W13" t="n">
-        <v>73335</v>
+        <v>82470</v>
       </c>
       <c r="X13" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B14" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>97238</v>
+        <v>65932</v>
       </c>
       <c r="E14" t="n">
-        <v>-35084</v>
+        <v>-26555</v>
       </c>
       <c r="F14" t="n">
-        <v>-26.51410952071462</v>
+        <v>-28.71214332825154</v>
       </c>
       <c r="G14" t="n">
-        <v>2085551</v>
+        <v>2174229</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.9</v>
+        <v>202.1</v>
       </c>
       <c r="J14" t="n">
-        <v>64.40000000000001</v>
+        <v>-9.700000000000017</v>
       </c>
       <c r="K14" t="n">
-        <v>43.95904436860069</v>
+        <v>-4.579792256846089</v>
       </c>
       <c r="L14" t="n">
-        <v>1407285</v>
+        <v>661575</v>
       </c>
       <c r="M14" t="n">
-        <v>138390</v>
+        <v>52575</v>
       </c>
       <c r="N14" t="n">
-        <v>483680</v>
+        <v>206735</v>
       </c>
       <c r="O14" t="n">
-        <v>283866</v>
+        <v>-16885</v>
       </c>
       <c r="P14" t="n">
-        <v>142.0651205621228</v>
+        <v>-7.550755746355424</v>
       </c>
       <c r="Q14" t="n">
-        <v>11988124</v>
+        <v>15430276</v>
       </c>
       <c r="R14" t="n">
-        <v>8.970000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="S14" t="n">
-        <v>13.7</v>
+        <v>0.1</v>
       </c>
       <c r="T14" t="n">
-        <v>-92.2</v>
+        <v>-70.7</v>
       </c>
       <c r="U14" t="n">
-        <v>-87.0632672332389</v>
+        <v>-99.85875706214689</v>
       </c>
       <c r="V14" t="n">
-        <v>4718385</v>
+        <v>1488975</v>
       </c>
       <c r="W14" t="n">
-        <v>785235</v>
+        <v>551445</v>
       </c>
       <c r="X14" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B15" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>319685</v>
+        <v>177282</v>
       </c>
       <c r="E15" t="n">
-        <v>18601</v>
+        <v>44960</v>
       </c>
       <c r="F15" t="n">
-        <v>6.178010123420706</v>
+        <v>33.97772101389036</v>
       </c>
       <c r="G15" t="n">
-        <v>6559221</v>
+        <v>8246517</v>
       </c>
       <c r="H15" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>128.8</v>
+        <v>101.7</v>
       </c>
       <c r="J15" t="n">
-        <v>32.35000000000001</v>
+        <v>-44.8</v>
       </c>
       <c r="K15" t="n">
-        <v>33.54069466044584</v>
+        <v>-30.58020477815699</v>
       </c>
       <c r="L15" t="n">
-        <v>4714110</v>
+        <v>1808895</v>
       </c>
       <c r="M15" t="n">
-        <v>454995</v>
+        <v>186585</v>
       </c>
       <c r="N15" t="n">
-        <v>686595</v>
+        <v>391396</v>
       </c>
       <c r="O15" t="n">
-        <v>536040</v>
+        <v>191582</v>
       </c>
       <c r="P15" t="n">
-        <v>356.042642223772</v>
+        <v>95.88016855675778</v>
       </c>
       <c r="Q15" t="n">
-        <v>20354431</v>
+        <v>37380828</v>
       </c>
       <c r="R15" t="n">
-        <v>8.93</v>
+        <v>2.82</v>
       </c>
       <c r="S15" t="n">
-        <v>31.85</v>
+        <v>0.2</v>
       </c>
       <c r="T15" t="n">
-        <v>-123.45</v>
+        <v>-105.7</v>
       </c>
       <c r="U15" t="n">
-        <v>-79.49130714745654</v>
+        <v>-99.81114258734655</v>
       </c>
       <c r="V15" t="n">
-        <v>6422535</v>
+        <v>5946675</v>
       </c>
       <c r="W15" t="n">
-        <v>1281990</v>
+        <v>873810</v>
       </c>
       <c r="X15" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B16" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>461893</v>
+        <v>797302</v>
       </c>
       <c r="E16" t="n">
-        <v>260661</v>
+        <v>496218</v>
       </c>
       <c r="F16" t="n">
-        <v>129.5325793114415</v>
+        <v>164.8104847816556</v>
       </c>
       <c r="G16" t="n">
-        <v>10327129</v>
+        <v>38177815</v>
       </c>
       <c r="H16" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.8</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>10.05</v>
+        <v>-92.95</v>
       </c>
       <c r="K16" t="n">
-        <v>16.82008368200836</v>
+        <v>-96.37117677553137</v>
       </c>
       <c r="L16" t="n">
-        <v>5155785</v>
+        <v>6226260</v>
       </c>
       <c r="M16" t="n">
-        <v>965730</v>
+        <v>1762755</v>
       </c>
       <c r="N16" t="n">
-        <v>431798</v>
+        <v>699465</v>
       </c>
       <c r="O16" t="n">
-        <v>396083</v>
+        <v>548910</v>
       </c>
       <c r="P16" t="n">
-        <v>1109.010219795604</v>
+        <v>364.5910132509714</v>
       </c>
       <c r="Q16" t="n">
-        <v>17799999</v>
+        <v>59728045</v>
       </c>
       <c r="R16" t="n">
-        <v>9.710000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="S16" t="n">
-        <v>73.5</v>
+        <v>1.35</v>
       </c>
       <c r="T16" t="n">
-        <v>-145.75</v>
+        <v>-153.95</v>
       </c>
       <c r="U16" t="n">
-        <v>-66.47662485746865</v>
+        <v>-99.13071474565358</v>
       </c>
       <c r="V16" t="n">
-        <v>4689105</v>
+        <v>6702585</v>
       </c>
       <c r="W16" t="n">
-        <v>724200</v>
+        <v>1623375</v>
       </c>
       <c r="X16" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B17" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>641763</v>
+        <v>441336</v>
       </c>
       <c r="E17" t="n">
-        <v>483075</v>
+        <v>240104</v>
       </c>
       <c r="F17" t="n">
-        <v>304.4181034482759</v>
+        <v>119.3170072354298</v>
       </c>
       <c r="G17" t="n">
-        <v>16269632</v>
+        <v>33638867</v>
       </c>
       <c r="H17" t="n">
-        <v>7.36</v>
+        <v>1.47</v>
       </c>
       <c r="I17" t="n">
-        <v>35.25</v>
+        <v>0.15</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.100000000000001</v>
+        <v>-59.6</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.02613480055021</v>
+        <v>-99.7489539748954</v>
       </c>
       <c r="L17" t="n">
-        <v>5357820</v>
+        <v>3668595</v>
       </c>
       <c r="M17" t="n">
-        <v>1626690</v>
+        <v>1521000</v>
       </c>
       <c r="N17" t="n">
-        <v>227016</v>
+        <v>172867</v>
       </c>
       <c r="O17" t="n">
-        <v>212246</v>
+        <v>137152</v>
       </c>
       <c r="P17" t="n">
-        <v>1437.007447528774</v>
+        <v>384.0179196416072</v>
       </c>
       <c r="Q17" t="n">
-        <v>15933822</v>
+        <v>32382401</v>
       </c>
       <c r="R17" t="n">
-        <v>11.22</v>
+        <v>7.77</v>
       </c>
       <c r="S17" t="n">
-        <v>139.4</v>
+        <v>98</v>
       </c>
       <c r="T17" t="n">
-        <v>-157.3</v>
+        <v>-121.25</v>
       </c>
       <c r="U17" t="n">
-        <v>-53.01651499831479</v>
+        <v>-55.30216647662486</v>
       </c>
       <c r="V17" t="n">
-        <v>3734085</v>
+        <v>2425965</v>
       </c>
       <c r="W17" t="n">
-        <v>359790</v>
+        <v>204915</v>
       </c>
       <c r="X17" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B18" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>608704</v>
+        <v>283044</v>
       </c>
       <c r="E18" t="n">
-        <v>446604</v>
+        <v>124356</v>
       </c>
       <c r="F18" t="n">
-        <v>275.5114127082048</v>
+        <v>78.36509376890503</v>
       </c>
       <c r="G18" t="n">
-        <v>16834196</v>
+        <v>32366275</v>
       </c>
       <c r="H18" t="n">
-        <v>8.51</v>
+        <v>3.01</v>
       </c>
       <c r="I18" t="n">
-        <v>19.3</v>
+        <v>0.15</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.300000000000001</v>
+        <v>-36.2</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.64814814814815</v>
+        <v>-99.58734525447042</v>
       </c>
       <c r="L18" t="n">
-        <v>5498730</v>
+        <v>3117870</v>
       </c>
       <c r="M18" t="n">
-        <v>1648050</v>
+        <v>741735</v>
       </c>
       <c r="N18" t="n">
-        <v>108919</v>
+        <v>108194</v>
       </c>
       <c r="O18" t="n">
-        <v>100452</v>
+        <v>93424</v>
       </c>
       <c r="P18" t="n">
-        <v>1186.394236447384</v>
+        <v>632.5253893026405</v>
       </c>
       <c r="Q18" t="n">
-        <v>11102035</v>
+        <v>21175899</v>
       </c>
       <c r="R18" t="n">
-        <v>13.33</v>
+        <v>11.2</v>
       </c>
       <c r="S18" t="n">
-        <v>223.35</v>
+        <v>197.6</v>
       </c>
       <c r="T18" t="n">
-        <v>-157.45</v>
+        <v>-99.09999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>-41.34716386554622</v>
+        <v>-33.40074148972025</v>
       </c>
       <c r="V18" t="n">
-        <v>2710620</v>
+        <v>1322370</v>
       </c>
       <c r="W18" t="n">
-        <v>196815</v>
+        <v>86070</v>
       </c>
       <c r="X18" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B19" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>520043</v>
+        <v>227631</v>
       </c>
       <c r="E19" t="n">
-        <v>409131</v>
+        <v>65531</v>
       </c>
       <c r="F19" t="n">
-        <v>368.8789310444316</v>
+        <v>40.42628007402838</v>
       </c>
       <c r="G19" t="n">
-        <v>15317702</v>
+        <v>28575983</v>
       </c>
       <c r="H19" t="n">
-        <v>9.720000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="I19" t="n">
-        <v>10.65</v>
+        <v>0.15</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.65</v>
+        <v>-21.45</v>
       </c>
       <c r="K19" t="n">
-        <v>-19.92481203007519</v>
+        <v>-99.30555555555556</v>
       </c>
       <c r="L19" t="n">
-        <v>4616925</v>
+        <v>3369360</v>
       </c>
       <c r="M19" t="n">
-        <v>1362540</v>
+        <v>709305</v>
       </c>
       <c r="N19" t="n">
-        <v>65243</v>
+        <v>51024</v>
       </c>
       <c r="O19" t="n">
-        <v>60509</v>
+        <v>42557</v>
       </c>
       <c r="P19" t="n">
-        <v>1278.179129700042</v>
+        <v>502.621944017952</v>
       </c>
       <c r="Q19" t="n">
-        <v>5526982</v>
+        <v>13385340</v>
       </c>
       <c r="R19" t="n">
-        <v>15.49</v>
+        <v>14.56</v>
       </c>
       <c r="S19" t="n">
-        <v>314.4</v>
+        <v>298.6</v>
       </c>
       <c r="T19" t="n">
-        <v>-158.3</v>
+        <v>-82.19999999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>-33.48847048868204</v>
+        <v>-21.58613445378151</v>
       </c>
       <c r="V19" t="n">
-        <v>1288110</v>
+        <v>993645</v>
       </c>
       <c r="W19" t="n">
-        <v>76110</v>
+        <v>44055</v>
       </c>
       <c r="X19" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B20" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>97238</v>
+        <v>69871</v>
       </c>
       <c r="E20" t="n">
-        <v>-35084</v>
+        <v>-22616</v>
       </c>
       <c r="F20" t="n">
-        <v>-26.51410952071462</v>
+        <v>-24.45316639095224</v>
       </c>
       <c r="G20" t="n">
-        <v>2085551</v>
+        <v>2167994</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.9</v>
+        <v>199.55</v>
       </c>
       <c r="J20" t="n">
-        <v>64.40000000000001</v>
+        <v>-12.25</v>
       </c>
       <c r="K20" t="n">
-        <v>43.95904436860069</v>
+        <v>-5.783758262511803</v>
       </c>
       <c r="L20" t="n">
-        <v>1407285</v>
+        <v>676800</v>
       </c>
       <c r="M20" t="n">
-        <v>138390</v>
+        <v>55125</v>
       </c>
       <c r="N20" t="n">
-        <v>483680</v>
+        <v>222773</v>
       </c>
       <c r="O20" t="n">
-        <v>283866</v>
+        <v>-847</v>
       </c>
       <c r="P20" t="n">
-        <v>142.0651205621228</v>
+        <v>-0.3787675520973079</v>
       </c>
       <c r="Q20" t="n">
-        <v>11956741</v>
+        <v>15384573</v>
       </c>
       <c r="R20" t="n">
-        <v>8.970000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="S20" t="n">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="T20" t="n">
-        <v>-93.40000000000001</v>
+        <v>-70.75</v>
       </c>
       <c r="U20" t="n">
-        <v>-88.19641170915958</v>
+        <v>-99.92937853107345</v>
       </c>
       <c r="V20" t="n">
-        <v>4705410</v>
+        <v>1795530</v>
       </c>
       <c r="W20" t="n">
-        <v>782505</v>
+        <v>547350</v>
       </c>
       <c r="X20" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B21" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>319685</v>
+        <v>177282</v>
       </c>
       <c r="E21" t="n">
-        <v>18601</v>
+        <v>44960</v>
       </c>
       <c r="F21" t="n">
-        <v>6.178010123420706</v>
+        <v>33.97772101389036</v>
       </c>
       <c r="G21" t="n">
-        <v>6527270</v>
+        <v>8189450</v>
       </c>
       <c r="H21" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>138.6</v>
+        <v>99.45</v>
       </c>
       <c r="J21" t="n">
-        <v>42.14999999999999</v>
+        <v>-47.05</v>
       </c>
       <c r="K21" t="n">
-        <v>43.701399688958</v>
+        <v>-32.1160409556314</v>
       </c>
       <c r="L21" t="n">
-        <v>4793220</v>
+        <v>2010795</v>
       </c>
       <c r="M21" t="n">
-        <v>481500</v>
+        <v>192810</v>
       </c>
       <c r="N21" t="n">
-        <v>686595</v>
+        <v>409579</v>
       </c>
       <c r="O21" t="n">
-        <v>536040</v>
+        <v>209765</v>
       </c>
       <c r="P21" t="n">
-        <v>356.042642223772</v>
+        <v>104.9801315223158</v>
       </c>
       <c r="Q21" t="n">
-        <v>20303944</v>
+        <v>37268826</v>
       </c>
       <c r="R21" t="n">
-        <v>8.93</v>
+        <v>2.82</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>0.3</v>
       </c>
       <c r="T21" t="n">
-        <v>-125.9</v>
+        <v>-105.6</v>
       </c>
       <c r="U21" t="n">
-        <v>-81.06889890534448</v>
+        <v>-99.71671388101984</v>
       </c>
       <c r="V21" t="n">
-        <v>6376650</v>
+        <v>6394965</v>
       </c>
       <c r="W21" t="n">
-        <v>1304520</v>
+        <v>826005</v>
       </c>
       <c r="X21" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B22" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>461893</v>
+        <v>797302</v>
       </c>
       <c r="E22" t="n">
-        <v>260661</v>
+        <v>496218</v>
       </c>
       <c r="F22" t="n">
-        <v>129.5325793114415</v>
+        <v>164.8104847816556</v>
       </c>
       <c r="G22" t="n">
-        <v>10327129</v>
+        <v>37676009</v>
       </c>
       <c r="H22" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.8</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>10.05</v>
+        <v>-93.65000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>16.82008368200836</v>
+        <v>-97.0969414204251</v>
       </c>
       <c r="L22" t="n">
-        <v>5155785</v>
+        <v>6357495</v>
       </c>
       <c r="M22" t="n">
-        <v>965730</v>
+        <v>2033670</v>
       </c>
       <c r="N22" t="n">
-        <v>431798</v>
+        <v>699465</v>
       </c>
       <c r="O22" t="n">
-        <v>396083</v>
+        <v>548910</v>
       </c>
       <c r="P22" t="n">
-        <v>1109.010219795604</v>
+        <v>364.5910132509714</v>
       </c>
       <c r="Q22" t="n">
-        <v>17799999</v>
+        <v>59193751</v>
       </c>
       <c r="R22" t="n">
-        <v>9.710000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="S22" t="n">
-        <v>73.5</v>
+        <v>3.1</v>
       </c>
       <c r="T22" t="n">
-        <v>-145.75</v>
+        <v>-152.2</v>
       </c>
       <c r="U22" t="n">
-        <v>-66.47662485746865</v>
+        <v>-98.00386349001931</v>
       </c>
       <c r="V22" t="n">
-        <v>4689105</v>
+        <v>6546795</v>
       </c>
       <c r="W22" t="n">
-        <v>724200</v>
+        <v>1497540</v>
       </c>
       <c r="X22" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B23" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>641763</v>
+        <v>492308</v>
       </c>
       <c r="E23" t="n">
-        <v>483075</v>
+        <v>291076</v>
       </c>
       <c r="F23" t="n">
-        <v>304.4181034482759</v>
+        <v>144.6469746362408</v>
       </c>
       <c r="G23" t="n">
-        <v>16269632</v>
+        <v>33540727</v>
       </c>
       <c r="H23" t="n">
-        <v>7.36</v>
+        <v>1.47</v>
       </c>
       <c r="I23" t="n">
-        <v>35.25</v>
+        <v>0.15</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.100000000000001</v>
+        <v>-59.6</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.02613480055021</v>
+        <v>-99.7489539748954</v>
       </c>
       <c r="L23" t="n">
-        <v>5357820</v>
+        <v>4538025</v>
       </c>
       <c r="M23" t="n">
-        <v>1626690</v>
+        <v>1246860</v>
       </c>
       <c r="N23" t="n">
-        <v>227016</v>
+        <v>206567</v>
       </c>
       <c r="O23" t="n">
-        <v>212246</v>
+        <v>170852</v>
       </c>
       <c r="P23" t="n">
-        <v>1437.007447528774</v>
+        <v>478.3760324793504</v>
       </c>
       <c r="Q23" t="n">
-        <v>15933822</v>
+        <v>32293615</v>
       </c>
       <c r="R23" t="n">
-        <v>11.22</v>
+        <v>7.77</v>
       </c>
       <c r="S23" t="n">
-        <v>139.4</v>
+        <v>100.35</v>
       </c>
       <c r="T23" t="n">
-        <v>-157.3</v>
+        <v>-118.9</v>
       </c>
       <c r="U23" t="n">
-        <v>-53.01651499831479</v>
+        <v>-54.230330672748</v>
       </c>
       <c r="V23" t="n">
-        <v>3734085</v>
+        <v>2535525</v>
       </c>
       <c r="W23" t="n">
-        <v>359790</v>
+        <v>217140</v>
       </c>
       <c r="X23" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B24" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>608704</v>
+        <v>283044</v>
       </c>
       <c r="E24" t="n">
-        <v>446604</v>
+        <v>124356</v>
       </c>
       <c r="F24" t="n">
-        <v>275.5114127082048</v>
+        <v>78.36509376890503</v>
       </c>
       <c r="G24" t="n">
-        <v>16834196</v>
+        <v>32349211</v>
       </c>
       <c r="H24" t="n">
-        <v>8.51</v>
+        <v>3.01</v>
       </c>
       <c r="I24" t="n">
-        <v>19.3</v>
+        <v>0.15</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.300000000000001</v>
+        <v>-36.2</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.64814814814815</v>
+        <v>-99.58734525447042</v>
       </c>
       <c r="L24" t="n">
-        <v>5498730</v>
+        <v>3181815</v>
       </c>
       <c r="M24" t="n">
-        <v>1648050</v>
+        <v>741525</v>
       </c>
       <c r="N24" t="n">
-        <v>108919</v>
+        <v>114609</v>
       </c>
       <c r="O24" t="n">
-        <v>100452</v>
+        <v>99839</v>
       </c>
       <c r="P24" t="n">
-        <v>1186.394236447384</v>
+        <v>675.9580230196344</v>
       </c>
       <c r="Q24" t="n">
-        <v>11102035</v>
+        <v>21155897</v>
       </c>
       <c r="R24" t="n">
-        <v>13.33</v>
+        <v>11.2</v>
       </c>
       <c r="S24" t="n">
-        <v>223.35</v>
+        <v>200.2</v>
       </c>
       <c r="T24" t="n">
-        <v>-157.45</v>
+        <v>-96.5</v>
       </c>
       <c r="U24" t="n">
-        <v>-41.34716386554622</v>
+        <v>-32.52443545669026</v>
       </c>
       <c r="V24" t="n">
-        <v>2710620</v>
+        <v>1432905</v>
       </c>
       <c r="W24" t="n">
-        <v>196815</v>
+        <v>88410</v>
       </c>
       <c r="X24" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B25" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>520043</v>
+        <v>227412</v>
       </c>
       <c r="E25" t="n">
-        <v>409131</v>
+        <v>65312</v>
       </c>
       <c r="F25" t="n">
-        <v>368.8789310444316</v>
+        <v>40.29117828500925</v>
       </c>
       <c r="G25" t="n">
-        <v>15317702</v>
+        <v>28557536</v>
       </c>
       <c r="H25" t="n">
-        <v>9.720000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="I25" t="n">
-        <v>10.65</v>
+        <v>0.15</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.65</v>
+        <v>-21.45</v>
       </c>
       <c r="K25" t="n">
-        <v>-19.92481203007519</v>
+        <v>-99.30555555555556</v>
       </c>
       <c r="L25" t="n">
-        <v>4616925</v>
+        <v>3595935</v>
       </c>
       <c r="M25" t="n">
-        <v>1362540</v>
+        <v>778290</v>
       </c>
       <c r="N25" t="n">
-        <v>65243</v>
+        <v>51024</v>
       </c>
       <c r="O25" t="n">
-        <v>60509</v>
+        <v>42557</v>
       </c>
       <c r="P25" t="n">
-        <v>1278.179129700042</v>
+        <v>502.621944017952</v>
       </c>
       <c r="Q25" t="n">
-        <v>5526982</v>
+        <v>13380196</v>
       </c>
       <c r="R25" t="n">
-        <v>15.49</v>
+        <v>14.56</v>
       </c>
       <c r="S25" t="n">
-        <v>314.4</v>
+        <v>300.15</v>
       </c>
       <c r="T25" t="n">
-        <v>-158.3</v>
+        <v>-80.65000000000003</v>
       </c>
       <c r="U25" t="n">
-        <v>-33.48847048868204</v>
+        <v>-21.17909663865547</v>
       </c>
       <c r="V25" t="n">
-        <v>1288110</v>
+        <v>1018440</v>
       </c>
       <c r="W25" t="n">
-        <v>76110</v>
+        <v>44490</v>
       </c>
       <c r="X25" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B26" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>97238</v>
+        <v>47927</v>
       </c>
       <c r="E26" t="n">
-        <v>-35084</v>
+        <v>-22421</v>
       </c>
       <c r="F26" t="n">
-        <v>-26.51410952071462</v>
+        <v>-31.87155285153807</v>
       </c>
       <c r="G26" t="n">
-        <v>2060575</v>
+        <v>850812</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>221.9</v>
+        <v>297.2</v>
       </c>
       <c r="J26" t="n">
-        <v>75.40000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="K26" t="n">
-        <v>51.46757679180888</v>
+        <v>2.67749179478321</v>
       </c>
       <c r="L26" t="n">
-        <v>1417485</v>
+        <v>485085</v>
       </c>
       <c r="M26" t="n">
-        <v>146070</v>
+        <v>40905</v>
       </c>
       <c r="N26" t="n">
-        <v>483680</v>
+        <v>182984</v>
       </c>
       <c r="O26" t="n">
-        <v>283866</v>
+        <v>-56062</v>
       </c>
       <c r="P26" t="n">
-        <v>142.0651205621228</v>
+        <v>-23.45238991658509</v>
       </c>
       <c r="Q26" t="n">
-        <v>11909910</v>
+        <v>7928073</v>
       </c>
       <c r="R26" t="n">
-        <v>8.970000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="S26" t="n">
-        <v>12.8</v>
+        <v>0.1</v>
       </c>
       <c r="T26" t="n">
-        <v>-93.10000000000001</v>
+        <v>-47.2</v>
       </c>
       <c r="U26" t="n">
-        <v>-87.91312559017942</v>
+        <v>-99.78858350951374</v>
       </c>
       <c r="V26" t="n">
-        <v>4753515</v>
+        <v>1621350</v>
       </c>
       <c r="W26" t="n">
-        <v>789570</v>
+        <v>322065</v>
       </c>
       <c r="X26" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B27" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>319685</v>
+        <v>69871</v>
       </c>
       <c r="E27" t="n">
-        <v>18601</v>
+        <v>-22616</v>
       </c>
       <c r="F27" t="n">
-        <v>6.178010123420706</v>
+        <v>-24.45316639095224</v>
       </c>
       <c r="G27" t="n">
-        <v>6493495</v>
+        <v>2161709</v>
       </c>
       <c r="H27" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>138.1</v>
+        <v>197.45</v>
       </c>
       <c r="J27" t="n">
-        <v>41.64999999999999</v>
+        <v>-14.35000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>43.18299637117676</v>
+        <v>-6.775259678942409</v>
       </c>
       <c r="L27" t="n">
-        <v>4838745</v>
+        <v>667680</v>
       </c>
       <c r="M27" t="n">
-        <v>480105</v>
+        <v>59940</v>
       </c>
       <c r="N27" t="n">
-        <v>693223</v>
+        <v>222773</v>
       </c>
       <c r="O27" t="n">
-        <v>542668</v>
+        <v>-847</v>
       </c>
       <c r="P27" t="n">
-        <v>360.4450200923251</v>
+        <v>-0.3787675520973079</v>
       </c>
       <c r="Q27" t="n">
-        <v>20229497</v>
+        <v>15363814</v>
       </c>
       <c r="R27" t="n">
-        <v>8.93</v>
+        <v>4.1</v>
       </c>
       <c r="S27" t="n">
-        <v>29.95</v>
+        <v>0.1</v>
       </c>
       <c r="T27" t="n">
-        <v>-125.35</v>
+        <v>-70.7</v>
       </c>
       <c r="U27" t="n">
-        <v>-80.71474565357373</v>
+        <v>-99.85875706214689</v>
       </c>
       <c r="V27" t="n">
-        <v>6423465</v>
+        <v>1897845</v>
       </c>
       <c r="W27" t="n">
-        <v>1286775</v>
+        <v>568320</v>
       </c>
       <c r="X27" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B28" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>461893</v>
+        <v>193378</v>
       </c>
       <c r="E28" t="n">
-        <v>260661</v>
+        <v>61056</v>
       </c>
       <c r="F28" t="n">
-        <v>129.5325793114415</v>
+        <v>46.14198697117637</v>
       </c>
       <c r="G28" t="n">
-        <v>10215310</v>
+        <v>8135470</v>
       </c>
       <c r="H28" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>76.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>16.84999999999999</v>
+        <v>-49.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>28.20083682008367</v>
+        <v>-33.51535836177474</v>
       </c>
       <c r="L28" t="n">
-        <v>5225430</v>
+        <v>1942995</v>
       </c>
       <c r="M28" t="n">
-        <v>946980</v>
+        <v>204285</v>
       </c>
       <c r="N28" t="n">
-        <v>431798</v>
+        <v>409579</v>
       </c>
       <c r="O28" t="n">
-        <v>396083</v>
+        <v>209765</v>
       </c>
       <c r="P28" t="n">
-        <v>1109.010219795604</v>
+        <v>104.9801315223158</v>
       </c>
       <c r="Q28" t="n">
-        <v>17696065</v>
+        <v>37171739</v>
       </c>
       <c r="R28" t="n">
-        <v>9.710000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="S28" t="n">
-        <v>69.09999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="T28" t="n">
-        <v>-150.15</v>
+        <v>-105.65</v>
       </c>
       <c r="U28" t="n">
-        <v>-68.48346636259977</v>
+        <v>-99.7639282341832</v>
       </c>
       <c r="V28" t="n">
-        <v>4737510</v>
+        <v>6139350</v>
       </c>
       <c r="W28" t="n">
-        <v>785265</v>
+        <v>956610</v>
       </c>
       <c r="X28" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B29" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>647670</v>
+        <v>778743</v>
       </c>
       <c r="E29" t="n">
-        <v>488982</v>
+        <v>477659</v>
       </c>
       <c r="F29" t="n">
-        <v>308.1405021173624</v>
+        <v>158.6464242536966</v>
       </c>
       <c r="G29" t="n">
-        <v>16142866</v>
+        <v>37342220</v>
       </c>
       <c r="H29" t="n">
-        <v>7.36</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.25</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>4.899999999999999</v>
+        <v>-94.5</v>
       </c>
       <c r="K29" t="n">
-        <v>13.48005502063273</v>
+        <v>-97.97822706065318</v>
       </c>
       <c r="L29" t="n">
-        <v>5423295</v>
+        <v>5939850</v>
       </c>
       <c r="M29" t="n">
-        <v>1619055</v>
+        <v>2177835</v>
       </c>
       <c r="N29" t="n">
-        <v>230765</v>
+        <v>802073</v>
       </c>
       <c r="O29" t="n">
-        <v>215995</v>
+        <v>651518</v>
       </c>
       <c r="P29" t="n">
-        <v>1462.389979688558</v>
+        <v>432.7441798678224</v>
       </c>
       <c r="Q29" t="n">
-        <v>15881743</v>
+        <v>58704561</v>
       </c>
       <c r="R29" t="n">
-        <v>11.22</v>
+        <v>2.72</v>
       </c>
       <c r="S29" t="n">
-        <v>132.7</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>-164</v>
+        <v>-151</v>
       </c>
       <c r="U29" t="n">
-        <v>-55.27468823727671</v>
+        <v>-97.23116548615582</v>
       </c>
       <c r="V29" t="n">
-        <v>3746475</v>
+        <v>6864600</v>
       </c>
       <c r="W29" t="n">
-        <v>381720</v>
+        <v>1412265</v>
       </c>
       <c r="X29" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B30" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>608704</v>
+        <v>492308</v>
       </c>
       <c r="E30" t="n">
-        <v>446604</v>
+        <v>291076</v>
       </c>
       <c r="F30" t="n">
-        <v>275.5114127082048</v>
+        <v>144.6469746362408</v>
       </c>
       <c r="G30" t="n">
-        <v>16741129</v>
+        <v>33451142</v>
       </c>
       <c r="H30" t="n">
-        <v>8.51</v>
+        <v>1.47</v>
       </c>
       <c r="I30" t="n">
-        <v>22.2</v>
+        <v>0.2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5999999999999979</v>
+        <v>-59.55</v>
       </c>
       <c r="K30" t="n">
-        <v>2.777777777777767</v>
+        <v>-99.66527196652719</v>
       </c>
       <c r="L30" t="n">
-        <v>5516355</v>
+        <v>4817895</v>
       </c>
       <c r="M30" t="n">
-        <v>1651545</v>
+        <v>1755405</v>
       </c>
       <c r="N30" t="n">
-        <v>109574</v>
+        <v>206567</v>
       </c>
       <c r="O30" t="n">
-        <v>101107</v>
+        <v>170852</v>
       </c>
       <c r="P30" t="n">
-        <v>1194.130152356207</v>
+        <v>478.3760324793504</v>
       </c>
       <c r="Q30" t="n">
-        <v>11081074</v>
+        <v>32241611</v>
       </c>
       <c r="R30" t="n">
-        <v>13.33</v>
+        <v>7.77</v>
       </c>
       <c r="S30" t="n">
-        <v>214.6</v>
+        <v>102.95</v>
       </c>
       <c r="T30" t="n">
-        <v>-166.2</v>
+        <v>-116.3</v>
       </c>
       <c r="U30" t="n">
-        <v>-43.64495798319329</v>
+        <v>-53.04446978335233</v>
       </c>
       <c r="V30" t="n">
-        <v>2714220</v>
+        <v>2661405</v>
       </c>
       <c r="W30" t="n">
-        <v>211395</v>
+        <v>218040</v>
       </c>
       <c r="X30" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B31" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>520043</v>
+        <v>316749</v>
       </c>
       <c r="E31" t="n">
-        <v>409131</v>
+        <v>158061</v>
       </c>
       <c r="F31" t="n">
-        <v>368.8789310444316</v>
+        <v>99.60488505747126</v>
       </c>
       <c r="G31" t="n">
-        <v>15231497</v>
+        <v>32326446</v>
       </c>
       <c r="H31" t="n">
-        <v>9.720000000000001</v>
+        <v>3.01</v>
       </c>
       <c r="I31" t="n">
-        <v>12.85</v>
+        <v>0.15</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4500000000000011</v>
+        <v>-36.2</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.38345864661655</v>
+        <v>-99.58734525447042</v>
       </c>
       <c r="L31" t="n">
-        <v>4683690</v>
+        <v>3299595</v>
       </c>
       <c r="M31" t="n">
-        <v>1311600</v>
+        <v>765240</v>
       </c>
       <c r="N31" t="n">
-        <v>65243</v>
+        <v>114609</v>
       </c>
       <c r="O31" t="n">
-        <v>60509</v>
+        <v>99839</v>
       </c>
       <c r="P31" t="n">
-        <v>1278.179129700042</v>
+        <v>675.9580230196344</v>
       </c>
       <c r="Q31" t="n">
-        <v>5518707</v>
+        <v>21141539</v>
       </c>
       <c r="R31" t="n">
-        <v>15.49</v>
+        <v>11.2</v>
       </c>
       <c r="S31" t="n">
-        <v>304.25</v>
+        <v>202.85</v>
       </c>
       <c r="T31" t="n">
-        <v>-168.45</v>
+        <v>-93.84999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>-35.63570975248572</v>
+        <v>-31.63127738456353</v>
       </c>
       <c r="V31" t="n">
-        <v>1287975</v>
+        <v>1502055</v>
       </c>
       <c r="W31" t="n">
-        <v>80805</v>
+        <v>83865</v>
       </c>
       <c r="X31" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B32" t="n">
         <v>44400</v>
@@ -2852,72 +2852,72 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>91180</v>
+        <v>92646</v>
       </c>
       <c r="E32" t="n">
-        <v>-41142</v>
+        <v>-39676</v>
       </c>
       <c r="F32" t="n">
-        <v>-31.09233536373392</v>
+        <v>-29.98443191608349</v>
       </c>
       <c r="G32" t="n">
-        <v>2044531</v>
+        <v>2111863</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>217.5</v>
+        <v>205.95</v>
       </c>
       <c r="J32" t="n">
-        <v>71</v>
+        <v>59.44999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>48.4641638225256</v>
+        <v>40.58020477815699</v>
       </c>
       <c r="L32" t="n">
-        <v>1410825</v>
+        <v>1413195</v>
       </c>
       <c r="M32" t="n">
-        <v>155895</v>
+        <v>144705</v>
       </c>
       <c r="N32" t="n">
-        <v>483680</v>
+        <v>493637</v>
       </c>
       <c r="O32" t="n">
-        <v>283866</v>
+        <v>293823</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0651205621228</v>
+        <v>147.0482548770356</v>
       </c>
       <c r="Q32" t="n">
-        <v>11860748</v>
+        <v>12130858</v>
       </c>
       <c r="R32" t="n">
-        <v>8.970000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="S32" t="n">
-        <v>13.95</v>
+        <v>12.95</v>
       </c>
       <c r="T32" t="n">
-        <v>-91.95</v>
+        <v>-92.95</v>
       </c>
       <c r="U32" t="n">
-        <v>-86.82719546742209</v>
+        <v>-87.77148253068933</v>
       </c>
       <c r="V32" t="n">
-        <v>4752480</v>
+        <v>4790685</v>
       </c>
       <c r="W32" t="n">
-        <v>778170</v>
+        <v>825135</v>
       </c>
       <c r="X32" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B33" t="n">
         <v>44500</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>319685</v>
+        <v>332590</v>
       </c>
       <c r="E33" t="n">
-        <v>18601</v>
+        <v>31506</v>
       </c>
       <c r="F33" t="n">
-        <v>6.178010123420706</v>
+        <v>10.46418939565038</v>
       </c>
       <c r="G33" t="n">
-        <v>6458879</v>
+        <v>6659114</v>
       </c>
       <c r="H33" t="n">
-        <v>3.11</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>137.15</v>
+        <v>123.9</v>
       </c>
       <c r="J33" t="n">
-        <v>40.7</v>
+        <v>27.45</v>
       </c>
       <c r="K33" t="n">
-        <v>42.19803006739243</v>
+        <v>28.46034214618974</v>
       </c>
       <c r="L33" t="n">
-        <v>4835475</v>
+        <v>4773945</v>
       </c>
       <c r="M33" t="n">
-        <v>454815</v>
+        <v>540945</v>
       </c>
       <c r="N33" t="n">
-        <v>693223</v>
+        <v>693247</v>
       </c>
       <c r="O33" t="n">
-        <v>542668</v>
+        <v>542692</v>
       </c>
       <c r="P33" t="n">
-        <v>360.4450200923251</v>
+        <v>360.4609611105576</v>
       </c>
       <c r="Q33" t="n">
-        <v>20165858</v>
+        <v>20571003</v>
       </c>
       <c r="R33" t="n">
-        <v>8.93</v>
+        <v>8.42</v>
       </c>
       <c r="S33" t="n">
-        <v>32.2</v>
+        <v>31.1</v>
       </c>
       <c r="T33" t="n">
-        <v>-123.1</v>
+        <v>-124.2</v>
       </c>
       <c r="U33" t="n">
-        <v>-79.26593689632968</v>
+        <v>-79.97424339987123</v>
       </c>
       <c r="V33" t="n">
-        <v>6389580</v>
+        <v>6565905</v>
       </c>
       <c r="W33" t="n">
-        <v>1258035</v>
+        <v>1355220</v>
       </c>
       <c r="X33" t="n">
-        <v>44609.95</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B34" t="n">
         <v>44600</v>
@@ -3004,72 +3004,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>461893</v>
+        <v>463945</v>
       </c>
       <c r="E34" t="n">
-        <v>260661</v>
+        <v>262713</v>
       </c>
       <c r="F34" t="n">
-        <v>129.5325793114415</v>
+        <v>130.5522978452731</v>
       </c>
       <c r="G34" t="n">
-        <v>10157824</v>
+        <v>10523315</v>
       </c>
       <c r="H34" t="n">
-        <v>6.02</v>
+        <v>6.28</v>
       </c>
       <c r="I34" t="n">
-        <v>76.2</v>
+        <v>67.05</v>
       </c>
       <c r="J34" t="n">
-        <v>16.45</v>
+        <v>7.299999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>27.53138075313808</v>
+        <v>12.21757322175732</v>
       </c>
       <c r="L34" t="n">
-        <v>5244165</v>
+        <v>5172000</v>
       </c>
       <c r="M34" t="n">
-        <v>880650</v>
+        <v>1035570</v>
       </c>
       <c r="N34" t="n">
-        <v>431798</v>
+        <v>431576</v>
       </c>
       <c r="O34" t="n">
-        <v>396083</v>
+        <v>395861</v>
       </c>
       <c r="P34" t="n">
-        <v>1109.010219795604</v>
+        <v>1108.388632227355</v>
       </c>
       <c r="Q34" t="n">
-        <v>17624335</v>
+        <v>17979824</v>
       </c>
       <c r="R34" t="n">
-        <v>9.710000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="S34" t="n">
-        <v>71.75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="T34" t="n">
-        <v>-147.5</v>
+        <v>-146.65</v>
       </c>
       <c r="U34" t="n">
-        <v>-67.27480045610034</v>
+        <v>-66.88711516533637</v>
       </c>
       <c r="V34" t="n">
-        <v>4702380</v>
+        <v>4773105</v>
       </c>
       <c r="W34" t="n">
-        <v>749520</v>
+        <v>761640</v>
       </c>
       <c r="X34" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B35" t="n">
         <v>44700</v>
@@ -3080,72 +3080,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>647670</v>
+        <v>649396</v>
       </c>
       <c r="E35" t="n">
-        <v>488982</v>
+        <v>490708</v>
       </c>
       <c r="F35" t="n">
-        <v>308.1405021173624</v>
+        <v>309.2281710022182</v>
       </c>
       <c r="G35" t="n">
-        <v>16085206</v>
+        <v>16512240</v>
       </c>
       <c r="H35" t="n">
-        <v>7.36</v>
+        <v>7.31</v>
       </c>
       <c r="I35" t="n">
-        <v>41.15</v>
+        <v>35.05</v>
       </c>
       <c r="J35" t="n">
-        <v>4.799999999999997</v>
+        <v>-1.300000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>13.20495185694634</v>
+        <v>-3.576341127922983</v>
       </c>
       <c r="L35" t="n">
-        <v>5447505</v>
+        <v>5313930</v>
       </c>
       <c r="M35" t="n">
-        <v>1575015</v>
+        <v>1691475</v>
       </c>
       <c r="N35" t="n">
-        <v>230765</v>
+        <v>225620</v>
       </c>
       <c r="O35" t="n">
-        <v>215995</v>
+        <v>210850</v>
       </c>
       <c r="P35" t="n">
-        <v>1462.389979688558</v>
+        <v>1427.555856465809</v>
       </c>
       <c r="Q35" t="n">
-        <v>15855352</v>
+        <v>16019049</v>
       </c>
       <c r="R35" t="n">
-        <v>11.22</v>
+        <v>10.21</v>
       </c>
       <c r="S35" t="n">
-        <v>136.85</v>
+        <v>140.65</v>
       </c>
       <c r="T35" t="n">
-        <v>-159.85</v>
+        <v>-156.05</v>
       </c>
       <c r="U35" t="n">
-        <v>-53.87596899224805</v>
+        <v>-52.59521402089653</v>
       </c>
       <c r="V35" t="n">
-        <v>3714615</v>
+        <v>3779760</v>
       </c>
       <c r="W35" t="n">
-        <v>364695</v>
+        <v>358680</v>
       </c>
       <c r="X35" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B36" t="n">
         <v>44800</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>609493</v>
+        <v>619784</v>
       </c>
       <c r="E36" t="n">
-        <v>447393</v>
+        <v>457684</v>
       </c>
       <c r="F36" t="n">
-        <v>275.9981492905614</v>
+        <v>282.3466995681678</v>
       </c>
       <c r="G36" t="n">
-        <v>16691584</v>
+        <v>17022653</v>
       </c>
       <c r="H36" t="n">
-        <v>8.51</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>21.9</v>
+        <v>17.8</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2999999999999972</v>
+        <v>-3.800000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>1.388888888888876</v>
+        <v>-17.5925925925926</v>
       </c>
       <c r="L36" t="n">
-        <v>5521425</v>
+        <v>5460360</v>
       </c>
       <c r="M36" t="n">
-        <v>1638390</v>
+        <v>1713450</v>
       </c>
       <c r="N36" t="n">
-        <v>109574</v>
+        <v>109828</v>
       </c>
       <c r="O36" t="n">
-        <v>101107</v>
+        <v>101361</v>
       </c>
       <c r="P36" t="n">
-        <v>1194.130152356207</v>
+        <v>1197.13003425062</v>
       </c>
       <c r="Q36" t="n">
-        <v>11070818</v>
+        <v>11137981</v>
       </c>
       <c r="R36" t="n">
-        <v>13.33</v>
+        <v>11.86</v>
       </c>
       <c r="S36" t="n">
-        <v>217.8</v>
+        <v>224.55</v>
       </c>
       <c r="T36" t="n">
-        <v>-163</v>
+        <v>-156.25</v>
       </c>
       <c r="U36" t="n">
-        <v>-42.80462184873949</v>
+        <v>-41.03203781512605</v>
       </c>
       <c r="V36" t="n">
-        <v>2704395</v>
+        <v>2713320</v>
       </c>
       <c r="W36" t="n">
-        <v>213585</v>
+        <v>210525</v>
       </c>
       <c r="X36" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B37" t="n">
         <v>44900</v>
@@ -3232,66 +3232,2346 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>528826</v>
+      </c>
+      <c r="E37" t="n">
+        <v>417914</v>
+      </c>
+      <c r="F37" t="n">
+        <v>376.7978216964801</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15505927</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-3.350000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-25.18796992481204</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4595880</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1359600</v>
+      </c>
+      <c r="N37" t="n">
+        <v>63930</v>
+      </c>
+      <c r="O37" t="n">
+        <v>59196</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1250.443599493029</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5538664</v>
+      </c>
+      <c r="R37" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="S37" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-156.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-33.02305902263591</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1295025</v>
+      </c>
+      <c r="W37" t="n">
+        <v>77055</v>
+      </c>
+      <c r="X37" t="n">
+        <v>44611.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>97238</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-35084</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-26.51410952071462</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2097802</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>200.05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>53.55000000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36.5529010238908</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1400190</v>
+      </c>
+      <c r="M38" t="n">
+        <v>161805</v>
+      </c>
+      <c r="N38" t="n">
+        <v>489536</v>
+      </c>
+      <c r="O38" t="n">
+        <v>289722</v>
+      </c>
+      <c r="P38" t="n">
+        <v>144.9958461369073</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12052385</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-91.45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-86.35505193578848</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4757310</v>
+      </c>
+      <c r="W38" t="n">
+        <v>804045</v>
+      </c>
+      <c r="X38" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B39" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>336499</v>
+      </c>
+      <c r="E39" t="n">
+        <v>35415</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11.76249817326726</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6604966</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24.8315189217211</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4718100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>469425</v>
+      </c>
+      <c r="N39" t="n">
+        <v>686595</v>
+      </c>
+      <c r="O39" t="n">
+        <v>536040</v>
+      </c>
+      <c r="P39" t="n">
+        <v>356.042642223772</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>20458419</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="S39" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-121.2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-78.0424983902125</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6459630</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1285260</v>
+      </c>
+      <c r="X39" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B40" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>461893</v>
+      </c>
+      <c r="E40" t="n">
+        <v>260661</v>
+      </c>
+      <c r="F40" t="n">
+        <v>129.5325793114415</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10424462</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I40" t="n">
+        <v>63.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.899999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.527196652719663</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5124180</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1018110</v>
+      </c>
+      <c r="N40" t="n">
+        <v>433772</v>
+      </c>
+      <c r="O40" t="n">
+        <v>398057</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1114.537309253815</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>17891878</v>
+      </c>
+      <c r="R40" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S40" t="n">
+        <v>77.55</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-141.7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-64.62941847206385</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4682130</v>
+      </c>
+      <c r="W40" t="n">
+        <v>708855</v>
+      </c>
+      <c r="X40" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B41" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>641763</v>
+      </c>
+      <c r="E41" t="n">
+        <v>483075</v>
+      </c>
+      <c r="F41" t="n">
+        <v>304.4181034482759</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16402154</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I41" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-4.050000000000004</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-11.1416781292985</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5292720</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1655535</v>
+      </c>
+      <c r="N41" t="n">
+        <v>227016</v>
+      </c>
+      <c r="O41" t="n">
+        <v>212246</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1437.007447528774</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>15979982</v>
+      </c>
+      <c r="R41" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="S41" t="n">
+        <v>145.85</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-150.85</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-50.84260195483653</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3733275</v>
+      </c>
+      <c r="W41" t="n">
+        <v>344280</v>
+      </c>
+      <c r="X41" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B42" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>608704</v>
+      </c>
+      <c r="E42" t="n">
+        <v>446604</v>
+      </c>
+      <c r="F42" t="n">
+        <v>275.5114127082048</v>
+      </c>
+      <c r="G42" t="n">
+        <v>16940905</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-4.850000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-22.45370370370371</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5419305</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1662660</v>
+      </c>
+      <c r="N42" t="n">
+        <v>108919</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100452</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1186.394236447384</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>11122650</v>
+      </c>
+      <c r="R42" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-150</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-39.39075630252101</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2702400</v>
+      </c>
+      <c r="W42" t="n">
+        <v>186720</v>
+      </c>
+      <c r="X42" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B43" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>518046</v>
+      </c>
+      <c r="E43" t="n">
+        <v>407134</v>
+      </c>
+      <c r="F43" t="n">
+        <v>367.0784045008655</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15424098</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-31.20300751879699</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4593255</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1353870</v>
+      </c>
+      <c r="N43" t="n">
+        <v>65482</v>
+      </c>
+      <c r="O43" t="n">
+        <v>60748</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1283.227714406422</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5532951</v>
+      </c>
+      <c r="R43" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="S43" t="n">
+        <v>324</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-148.7</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-31.45758409138988</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1290255</v>
+      </c>
+      <c r="W43" t="n">
+        <v>73335</v>
+      </c>
+      <c r="X43" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>97238</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-35084</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-26.51410952071462</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2085551</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>43.95904436860069</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1407285</v>
+      </c>
+      <c r="M44" t="n">
+        <v>138390</v>
+      </c>
+      <c r="N44" t="n">
+        <v>483680</v>
+      </c>
+      <c r="O44" t="n">
+        <v>283866</v>
+      </c>
+      <c r="P44" t="n">
+        <v>142.0651205621228</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>11988124</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-92.2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-87.0632672332389</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4718385</v>
+      </c>
+      <c r="W44" t="n">
+        <v>785235</v>
+      </c>
+      <c r="X44" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>319685</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18601</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.178010123420706</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6559221</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I45" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>32.35000000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>33.54069466044584</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4714110</v>
+      </c>
+      <c r="M45" t="n">
+        <v>454995</v>
+      </c>
+      <c r="N45" t="n">
+        <v>686595</v>
+      </c>
+      <c r="O45" t="n">
+        <v>536040</v>
+      </c>
+      <c r="P45" t="n">
+        <v>356.042642223772</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>20354431</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="S45" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-123.45</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-79.49130714745654</v>
+      </c>
+      <c r="V45" t="n">
+        <v>6422535</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1281990</v>
+      </c>
+      <c r="X45" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>461893</v>
+      </c>
+      <c r="E46" t="n">
+        <v>260661</v>
+      </c>
+      <c r="F46" t="n">
+        <v>129.5325793114415</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10327129</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I46" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.82008368200836</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5155785</v>
+      </c>
+      <c r="M46" t="n">
+        <v>965730</v>
+      </c>
+      <c r="N46" t="n">
+        <v>431798</v>
+      </c>
+      <c r="O46" t="n">
+        <v>396083</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1109.010219795604</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>17799999</v>
+      </c>
+      <c r="R46" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S46" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-145.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-66.47662485746865</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4689105</v>
+      </c>
+      <c r="W46" t="n">
+        <v>724200</v>
+      </c>
+      <c r="X46" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>641763</v>
+      </c>
+      <c r="E47" t="n">
+        <v>483075</v>
+      </c>
+      <c r="F47" t="n">
+        <v>304.4181034482759</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16269632</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-3.02613480055021</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5357820</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1626690</v>
+      </c>
+      <c r="N47" t="n">
+        <v>227016</v>
+      </c>
+      <c r="O47" t="n">
+        <v>212246</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1437.007447528774</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>15933822</v>
+      </c>
+      <c r="R47" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="S47" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-157.3</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-53.01651499831479</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3734085</v>
+      </c>
+      <c r="W47" t="n">
+        <v>359790</v>
+      </c>
+      <c r="X47" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>608704</v>
+      </c>
+      <c r="E48" t="n">
+        <v>446604</v>
+      </c>
+      <c r="F48" t="n">
+        <v>275.5114127082048</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16834196</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I48" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-10.64814814814815</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5498730</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1648050</v>
+      </c>
+      <c r="N48" t="n">
+        <v>108919</v>
+      </c>
+      <c r="O48" t="n">
+        <v>100452</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1186.394236447384</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>11102035</v>
+      </c>
+      <c r="R48" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="S48" t="n">
+        <v>223.35</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-157.45</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-41.34716386554622</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2710620</v>
+      </c>
+      <c r="W48" t="n">
+        <v>196815</v>
+      </c>
+      <c r="X48" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B49" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>520043</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E49" t="n">
         <v>409131</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F49" t="n">
         <v>368.8789310444316</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G49" t="n">
+        <v>15317702</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-19.92481203007519</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4616925</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1362540</v>
+      </c>
+      <c r="N49" t="n">
+        <v>65243</v>
+      </c>
+      <c r="O49" t="n">
+        <v>60509</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1278.179129700042</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5526982</v>
+      </c>
+      <c r="R49" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="S49" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-158.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-33.48847048868204</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1288110</v>
+      </c>
+      <c r="W49" t="n">
+        <v>76110</v>
+      </c>
+      <c r="X49" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>97238</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-35084</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-26.51410952071462</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2085551</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>43.95904436860069</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1407285</v>
+      </c>
+      <c r="M50" t="n">
+        <v>138390</v>
+      </c>
+      <c r="N50" t="n">
+        <v>483680</v>
+      </c>
+      <c r="O50" t="n">
+        <v>283866</v>
+      </c>
+      <c r="P50" t="n">
+        <v>142.0651205621228</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>11956741</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-93.40000000000001</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-88.19641170915958</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4705410</v>
+      </c>
+      <c r="W50" t="n">
+        <v>782505</v>
+      </c>
+      <c r="X50" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>319685</v>
+      </c>
+      <c r="E51" t="n">
+        <v>18601</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.178010123420706</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6527270</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I51" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>42.14999999999999</v>
+      </c>
+      <c r="K51" t="n">
+        <v>43.701399688958</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4793220</v>
+      </c>
+      <c r="M51" t="n">
+        <v>481500</v>
+      </c>
+      <c r="N51" t="n">
+        <v>686595</v>
+      </c>
+      <c r="O51" t="n">
+        <v>536040</v>
+      </c>
+      <c r="P51" t="n">
+        <v>356.042642223772</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>20303944</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="S51" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-125.9</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-81.06889890534448</v>
+      </c>
+      <c r="V51" t="n">
+        <v>6376650</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1304520</v>
+      </c>
+      <c r="X51" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>461893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>260661</v>
+      </c>
+      <c r="F52" t="n">
+        <v>129.5325793114415</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10327129</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I52" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16.82008368200836</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5155785</v>
+      </c>
+      <c r="M52" t="n">
+        <v>965730</v>
+      </c>
+      <c r="N52" t="n">
+        <v>431798</v>
+      </c>
+      <c r="O52" t="n">
+        <v>396083</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1109.010219795604</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>17799999</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S52" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-145.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-66.47662485746865</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4689105</v>
+      </c>
+      <c r="W52" t="n">
+        <v>724200</v>
+      </c>
+      <c r="X52" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>641763</v>
+      </c>
+      <c r="E53" t="n">
+        <v>483075</v>
+      </c>
+      <c r="F53" t="n">
+        <v>304.4181034482759</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16269632</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-3.02613480055021</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5357820</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1626690</v>
+      </c>
+      <c r="N53" t="n">
+        <v>227016</v>
+      </c>
+      <c r="O53" t="n">
+        <v>212246</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1437.007447528774</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>15933822</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="S53" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-157.3</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-53.01651499831479</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3734085</v>
+      </c>
+      <c r="W53" t="n">
+        <v>359790</v>
+      </c>
+      <c r="X53" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>608704</v>
+      </c>
+      <c r="E54" t="n">
+        <v>446604</v>
+      </c>
+      <c r="F54" t="n">
+        <v>275.5114127082048</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16834196</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-10.64814814814815</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5498730</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1648050</v>
+      </c>
+      <c r="N54" t="n">
+        <v>108919</v>
+      </c>
+      <c r="O54" t="n">
+        <v>100452</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1186.394236447384</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>11102035</v>
+      </c>
+      <c r="R54" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="S54" t="n">
+        <v>223.35</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-157.45</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-41.34716386554622</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2710620</v>
+      </c>
+      <c r="W54" t="n">
+        <v>196815</v>
+      </c>
+      <c r="X54" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>520043</v>
+      </c>
+      <c r="E55" t="n">
+        <v>409131</v>
+      </c>
+      <c r="F55" t="n">
+        <v>368.8789310444316</v>
+      </c>
+      <c r="G55" t="n">
+        <v>15317702</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-19.92481203007519</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4616925</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1362540</v>
+      </c>
+      <c r="N55" t="n">
+        <v>65243</v>
+      </c>
+      <c r="O55" t="n">
+        <v>60509</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1278.179129700042</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5526982</v>
+      </c>
+      <c r="R55" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="S55" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-158.3</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-33.48847048868204</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1288110</v>
+      </c>
+      <c r="W55" t="n">
+        <v>76110</v>
+      </c>
+      <c r="X55" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>97238</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-35084</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-26.51410952071462</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2060575</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K56" t="n">
+        <v>51.46757679180888</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1417485</v>
+      </c>
+      <c r="M56" t="n">
+        <v>146070</v>
+      </c>
+      <c r="N56" t="n">
+        <v>483680</v>
+      </c>
+      <c r="O56" t="n">
+        <v>283866</v>
+      </c>
+      <c r="P56" t="n">
+        <v>142.0651205621228</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>11909910</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S56" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-93.10000000000001</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-87.91312559017942</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4753515</v>
+      </c>
+      <c r="W56" t="n">
+        <v>789570</v>
+      </c>
+      <c r="X56" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>319685</v>
+      </c>
+      <c r="E57" t="n">
+        <v>18601</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.178010123420706</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6493495</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I57" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>41.64999999999999</v>
+      </c>
+      <c r="K57" t="n">
+        <v>43.18299637117676</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4838745</v>
+      </c>
+      <c r="M57" t="n">
+        <v>480105</v>
+      </c>
+      <c r="N57" t="n">
+        <v>693223</v>
+      </c>
+      <c r="O57" t="n">
+        <v>542668</v>
+      </c>
+      <c r="P57" t="n">
+        <v>360.4450200923251</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>20229497</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="S57" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-125.35</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-80.71474565357373</v>
+      </c>
+      <c r="V57" t="n">
+        <v>6423465</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1286775</v>
+      </c>
+      <c r="X57" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>461893</v>
+      </c>
+      <c r="E58" t="n">
+        <v>260661</v>
+      </c>
+      <c r="F58" t="n">
+        <v>129.5325793114415</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10215310</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I58" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16.84999999999999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>28.20083682008367</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5225430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>946980</v>
+      </c>
+      <c r="N58" t="n">
+        <v>431798</v>
+      </c>
+      <c r="O58" t="n">
+        <v>396083</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1109.010219795604</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>17696065</v>
+      </c>
+      <c r="R58" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S58" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-150.15</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-68.48346636259977</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4737510</v>
+      </c>
+      <c r="W58" t="n">
+        <v>785265</v>
+      </c>
+      <c r="X58" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>647670</v>
+      </c>
+      <c r="E59" t="n">
+        <v>488982</v>
+      </c>
+      <c r="F59" t="n">
+        <v>308.1405021173624</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16142866</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I59" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.899999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>13.48005502063273</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5423295</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1619055</v>
+      </c>
+      <c r="N59" t="n">
+        <v>230765</v>
+      </c>
+      <c r="O59" t="n">
+        <v>215995</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1462.389979688558</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>15881743</v>
+      </c>
+      <c r="R59" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="S59" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-164</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-55.27468823727671</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3746475</v>
+      </c>
+      <c r="W59" t="n">
+        <v>381720</v>
+      </c>
+      <c r="X59" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>608704</v>
+      </c>
+      <c r="E60" t="n">
+        <v>446604</v>
+      </c>
+      <c r="F60" t="n">
+        <v>275.5114127082048</v>
+      </c>
+      <c r="G60" t="n">
+        <v>16741129</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.777777777777767</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5516355</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1651545</v>
+      </c>
+      <c r="N60" t="n">
+        <v>109574</v>
+      </c>
+      <c r="O60" t="n">
+        <v>101107</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1194.130152356207</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>11081074</v>
+      </c>
+      <c r="R60" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="S60" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-166.2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-43.64495798319329</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2714220</v>
+      </c>
+      <c r="W60" t="n">
+        <v>211395</v>
+      </c>
+      <c r="X60" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>520043</v>
+      </c>
+      <c r="E61" t="n">
+        <v>409131</v>
+      </c>
+      <c r="F61" t="n">
+        <v>368.8789310444316</v>
+      </c>
+      <c r="G61" t="n">
+        <v>15231497</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.4500000000000011</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-3.38345864661655</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4683690</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1311600</v>
+      </c>
+      <c r="N61" t="n">
+        <v>65243</v>
+      </c>
+      <c r="O61" t="n">
+        <v>60509</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1278.179129700042</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5518707</v>
+      </c>
+      <c r="R61" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="S61" t="n">
+        <v>304.25</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-168.45</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-35.63570975248572</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1287975</v>
+      </c>
+      <c r="W61" t="n">
+        <v>80805</v>
+      </c>
+      <c r="X61" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>91180</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-41142</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-31.09233536373392</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2044531</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>71</v>
+      </c>
+      <c r="K62" t="n">
+        <v>48.4641638225256</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1410825</v>
+      </c>
+      <c r="M62" t="n">
+        <v>155895</v>
+      </c>
+      <c r="N62" t="n">
+        <v>483680</v>
+      </c>
+      <c r="O62" t="n">
+        <v>283866</v>
+      </c>
+      <c r="P62" t="n">
+        <v>142.0651205621228</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>11860748</v>
+      </c>
+      <c r="R62" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S62" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-91.95</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-86.82719546742209</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4752480</v>
+      </c>
+      <c r="W62" t="n">
+        <v>778170</v>
+      </c>
+      <c r="X62" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B63" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>319685</v>
+      </c>
+      <c r="E63" t="n">
+        <v>18601</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.178010123420706</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6458879</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I63" t="n">
+        <v>137.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>42.19803006739243</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4835475</v>
+      </c>
+      <c r="M63" t="n">
+        <v>454815</v>
+      </c>
+      <c r="N63" t="n">
+        <v>693223</v>
+      </c>
+      <c r="O63" t="n">
+        <v>542668</v>
+      </c>
+      <c r="P63" t="n">
+        <v>360.4450200923251</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>20165858</v>
+      </c>
+      <c r="R63" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="S63" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-123.1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-79.26593689632968</v>
+      </c>
+      <c r="V63" t="n">
+        <v>6389580</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1258035</v>
+      </c>
+      <c r="X63" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B64" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>461893</v>
+      </c>
+      <c r="E64" t="n">
+        <v>260661</v>
+      </c>
+      <c r="F64" t="n">
+        <v>129.5325793114415</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10157824</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="I64" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="K64" t="n">
+        <v>27.53138075313808</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5244165</v>
+      </c>
+      <c r="M64" t="n">
+        <v>880650</v>
+      </c>
+      <c r="N64" t="n">
+        <v>431798</v>
+      </c>
+      <c r="O64" t="n">
+        <v>396083</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1109.010219795604</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>17624335</v>
+      </c>
+      <c r="R64" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="S64" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-147.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-67.27480045610034</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4702380</v>
+      </c>
+      <c r="W64" t="n">
+        <v>749520</v>
+      </c>
+      <c r="X64" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B65" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>647670</v>
+      </c>
+      <c r="E65" t="n">
+        <v>488982</v>
+      </c>
+      <c r="F65" t="n">
+        <v>308.1405021173624</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16085206</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I65" t="n">
+        <v>41.15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="K65" t="n">
+        <v>13.20495185694634</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5447505</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1575015</v>
+      </c>
+      <c r="N65" t="n">
+        <v>230765</v>
+      </c>
+      <c r="O65" t="n">
+        <v>215995</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1462.389979688558</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>15855352</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="S65" t="n">
+        <v>136.85</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-159.85</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-53.87596899224805</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3714615</v>
+      </c>
+      <c r="W65" t="n">
+        <v>364695</v>
+      </c>
+      <c r="X65" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B66" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>609493</v>
+      </c>
+      <c r="E66" t="n">
+        <v>447393</v>
+      </c>
+      <c r="F66" t="n">
+        <v>275.9981492905614</v>
+      </c>
+      <c r="G66" t="n">
+        <v>16691584</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.388888888888876</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5521425</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1638390</v>
+      </c>
+      <c r="N66" t="n">
+        <v>109574</v>
+      </c>
+      <c r="O66" t="n">
+        <v>101107</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1194.130152356207</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>11070818</v>
+      </c>
+      <c r="R66" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="S66" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-163</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-42.80462184873949</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2704395</v>
+      </c>
+      <c r="W66" t="n">
+        <v>213585</v>
+      </c>
+      <c r="X66" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B67" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>24-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>520043</v>
+      </c>
+      <c r="E67" t="n">
+        <v>409131</v>
+      </c>
+      <c r="F67" t="n">
+        <v>368.8789310444316</v>
+      </c>
+      <c r="G67" t="n">
         <v>15187816</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H67" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I67" t="n">
         <v>12.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J67" t="n">
         <v>-0.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K67" t="n">
         <v>-3.759398496240602</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L67" t="n">
         <v>4692960</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M67" t="n">
         <v>1309815</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N67" t="n">
         <v>65243</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O67" t="n">
         <v>60509</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P67" t="n">
         <v>1278.179129700042</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q67" t="n">
         <v>5512853</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R67" t="n">
         <v>15.49</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S67" t="n">
         <v>307.65</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T67" t="n">
         <v>-165.05</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U67" t="n">
         <v>-34.91643748677809</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V67" t="n">
         <v>1292025</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>80265</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>44589.7</v>
       </c>
     </row>
